--- a/medicine/Handicap/Shapereader/Shapereader.xlsx
+++ b/medicine/Handicap/Shapereader/Shapereader.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Shapereader est un dispositif narratif tactile, mis au point et développé par l'artiste Ilan Manouach. Il est fondé sur un répertoire d'idéogrammes tactiles qui fut initialement mis au point à destination de lecteurs et d'auteurs de bande dessinée non ou mal-voyants[1]. Différentes versions de Shapereader ont été présentées et commentées internationalement, sous forme d'expositions, de performances, d'interventions ou d'ateliers, dans des centres d'art contemporain et des musées (MUSAC[2], Castilla[3]; Binyamin Gallery[4], Tel Aviv ; School of the Chicago Art Institute) ou des foires du livre (Shapereader a été sélectionné pour représenter la Belgique lors de la foire du livre de Francfort, en 2019[5]).
-Shapereader a reçu le soutien d'organisation de défense des droits des moins valides (Swiss Handicap, NFB, Iiris Library) et d'universités (Disabilities Studies, université de Washington)[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shapereader est un dispositif narratif tactile, mis au point et développé par l'artiste Ilan Manouach. Il est fondé sur un répertoire d'idéogrammes tactiles qui fut initialement mis au point à destination de lecteurs et d'auteurs de bande dessinée non ou mal-voyants. Différentes versions de Shapereader ont été présentées et commentées internationalement, sous forme d'expositions, de performances, d'interventions ou d'ateliers, dans des centres d'art contemporain et des musées (MUSAC, Castilla; Binyamin Gallery, Tel Aviv ; School of the Chicago Art Institute) ou des foires du livre (Shapereader a été sélectionné pour représenter la Belgique lors de la foire du livre de Francfort, en 2019).
+Shapereader a reçu le soutien d'organisation de défense des droits des moins valides (Swiss Handicap, NFB, Iiris Library) et d'universités (Disabilities Studies, université de Washington).
 </t>
         </is>
       </c>
